--- a/dados/historico/times/rodada_26/Santos.xlsx
+++ b/dados/historico/times/rodada_26/Santos.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -729,10 +729,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Matchweek 2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -900,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -917,10 +915,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Matchweek 3</t>
-        </is>
+      <c r="E3" t="n">
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1088,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1105,10 +1101,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matchweek 5</t>
-        </is>
+      <c r="E4" t="n">
+        <v>5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1293,10 +1287,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matchweek 7</t>
-        </is>
+      <c r="E5" t="n">
+        <v>7</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1464,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1481,10 +1473,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Matchweek 9</t>
-        </is>
+      <c r="E6" t="n">
+        <v>9</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1652,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1669,10 +1659,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Matchweek 11</t>
-        </is>
+      <c r="E7" t="n">
+        <v>11</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1840,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1857,10 +1845,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Matchweek 12</t>
-        </is>
+      <c r="E8" t="n">
+        <v>12</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2026,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2043,10 +2029,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Matchweek 14</t>
-        </is>
+      <c r="E9" t="n">
+        <v>14</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2212,7 +2196,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2229,10 +2213,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Matchweek 16</t>
-        </is>
+      <c r="E10" t="n">
+        <v>16</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2398,7 +2380,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2415,10 +2397,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Matchweek 18</t>
-        </is>
+      <c r="E11" t="n">
+        <v>18</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2584,7 +2564,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2601,10 +2581,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Matchweek 20</t>
-        </is>
+      <c r="E12" t="n">
+        <v>20</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2770,7 +2748,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2787,10 +2765,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matchweek 23</t>
-        </is>
+      <c r="E13" t="n">
+        <v>23</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2958,7 +2934,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2975,10 +2951,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matchweek 25</t>
-        </is>
+      <c r="E14" t="n">
+        <v>25</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -3144,7 +3118,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3161,10 +3135,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Matchweek 8</t>
-        </is>
+      <c r="E15" t="n">
+        <v>8</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3332,7 +3304,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3349,10 +3321,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Matchweek 1</t>
-        </is>
+      <c r="E16" t="n">
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3520,7 +3490,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3537,10 +3507,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Matchweek 26</t>
-        </is>
+      <c r="E17" t="n">
+        <v>26</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3706,7 +3674,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3723,10 +3691,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Matchweek 19</t>
-        </is>
+      <c r="E18" t="n">
+        <v>19</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3892,7 +3858,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3909,10 +3875,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Matchweek 17</t>
-        </is>
+      <c r="E19" t="n">
+        <v>17</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4076,7 +4040,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4093,10 +4057,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Matchweek 21</t>
-        </is>
+      <c r="E20" t="n">
+        <v>21</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4260,7 +4222,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4277,10 +4239,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Matchweek 15</t>
-        </is>
+      <c r="E21" t="n">
+        <v>15</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4446,7 +4406,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4463,10 +4423,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Matchweek 13</t>
-        </is>
+      <c r="E22" t="n">
+        <v>13</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -4634,7 +4592,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4651,10 +4609,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Matchweek 4</t>
-        </is>
+      <c r="E23" t="n">
+        <v>4</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -4822,7 +4778,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4839,10 +4795,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Matchweek 24</t>
-        </is>
+      <c r="E24" t="n">
+        <v>24</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5008,7 +4962,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5025,10 +4979,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Matchweek 6</t>
-        </is>
+      <c r="E25" t="n">
+        <v>6</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5196,7 +5148,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5213,10 +5165,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Matchweek 10</t>
-        </is>
+      <c r="E26" t="n">
+        <v>10</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5384,7 +5334,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5401,10 +5351,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Matchweek 22</t>
-        </is>
+      <c r="E27" t="n">
+        <v>22</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/dados/historico/times/rodada_26/Santos.xlsx
+++ b/dados/historico/times/rodada_26/Santos.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>365</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>366</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>370</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>15</v>
+        <v>374</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>16</v>
+        <v>375</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>21</v>
+        <v>379</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>23</v>
+        <v>381</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>25</v>
+        <v>383</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>28</v>
+        <v>386</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>30</v>
+        <v>388</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>413</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>5</v>
+        <v>421</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>9</v>
+        <v>477</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>32</v>
+        <v>514</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
